--- a/SchedulingData/dynamic15/pso/scheduling1_3.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling1_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,45 +462,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>26.984</v>
+        <v>26.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.78</v>
+        <v>57.1</v>
       </c>
       <c r="E3" t="n">
-        <v>26.592</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,32 +508,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56.86</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>120.06</v>
+        <v>83.5</v>
       </c>
       <c r="E4" t="n">
-        <v>22.304</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.08</v>
+        <v>64.52</v>
       </c>
       <c r="E5" t="n">
-        <v>27.192</v>
+        <v>26.208</v>
       </c>
     </row>
     <row r="6">
@@ -542,98 +542,98 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="D6" t="n">
-        <v>56.2</v>
+        <v>112.78</v>
       </c>
       <c r="E6" t="n">
-        <v>25.08</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.2</v>
+        <v>83.5</v>
       </c>
       <c r="D7" t="n">
-        <v>98.84</v>
+        <v>135.12</v>
       </c>
       <c r="E7" t="n">
-        <v>21.956</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>98.84</v>
+        <v>57.1</v>
       </c>
       <c r="D8" t="n">
-        <v>151.44</v>
+        <v>122.96</v>
       </c>
       <c r="E8" t="n">
-        <v>18.836</v>
+        <v>23.504</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>120.06</v>
+        <v>122.96</v>
       </c>
       <c r="D9" t="n">
-        <v>186.16</v>
+        <v>170.84</v>
       </c>
       <c r="E9" t="n">
-        <v>17.324</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>151.44</v>
+        <v>135.12</v>
       </c>
       <c r="D10" t="n">
-        <v>222.06</v>
+        <v>217.02</v>
       </c>
       <c r="E10" t="n">
-        <v>14.884</v>
+        <v>16.728</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,70 +641,70 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>217.02</v>
       </c>
       <c r="D11" t="n">
-        <v>69.28</v>
+        <v>260.8</v>
       </c>
       <c r="E11" t="n">
-        <v>26.752</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55.78</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>139.44</v>
+        <v>55.08</v>
       </c>
       <c r="E12" t="n">
-        <v>23.336</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>186.16</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>246.66</v>
+        <v>110.66</v>
       </c>
       <c r="E13" t="n">
-        <v>12.404</v>
+        <v>23.744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>139.44</v>
+        <v>112.78</v>
       </c>
       <c r="D14" t="n">
-        <v>179.86</v>
+        <v>159.78</v>
       </c>
       <c r="E14" t="n">
-        <v>20.424</v>
+        <v>19.432</v>
       </c>
     </row>
     <row r="15">
@@ -713,74 +713,74 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>110.66</v>
       </c>
       <c r="D15" t="n">
-        <v>59.24</v>
+        <v>164.52</v>
       </c>
       <c r="E15" t="n">
-        <v>26.736</v>
+        <v>20.488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59.24</v>
+        <v>170.84</v>
       </c>
       <c r="D16" t="n">
-        <v>115.54</v>
+        <v>217.34</v>
       </c>
       <c r="E16" t="n">
-        <v>24.216</v>
+        <v>16.336</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>69.28</v>
+        <v>55.08</v>
       </c>
       <c r="D17" t="n">
-        <v>127.34</v>
+        <v>112.72</v>
       </c>
       <c r="E17" t="n">
-        <v>23.056</v>
+        <v>24.068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>127.34</v>
+        <v>164.52</v>
       </c>
       <c r="D18" t="n">
-        <v>175.8</v>
+        <v>238.9</v>
       </c>
       <c r="E18" t="n">
-        <v>20.32</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="19">
@@ -789,155 +789,155 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>179.86</v>
+        <v>260.8</v>
       </c>
       <c r="D19" t="n">
-        <v>213.62</v>
+        <v>316.12</v>
       </c>
       <c r="E19" t="n">
-        <v>17.688</v>
+        <v>10.568</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>213.62</v>
+        <v>159.78</v>
       </c>
       <c r="D20" t="n">
-        <v>268.8</v>
+        <v>210.66</v>
       </c>
       <c r="E20" t="n">
-        <v>14.3</v>
+        <v>16.484</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>175.8</v>
+        <v>210.66</v>
       </c>
       <c r="D21" t="n">
-        <v>218.8</v>
+        <v>262</v>
       </c>
       <c r="E21" t="n">
-        <v>16.66</v>
+        <v>12.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>218.8</v>
+        <v>112.72</v>
       </c>
       <c r="D22" t="n">
-        <v>280.7</v>
+        <v>171.42</v>
       </c>
       <c r="E22" t="n">
-        <v>12.1</v>
+        <v>20.828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>222.06</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>266.12</v>
+        <v>47.78</v>
       </c>
       <c r="E23" t="n">
-        <v>11.608</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40.08</v>
+        <v>171.42</v>
       </c>
       <c r="D24" t="n">
-        <v>131.58</v>
+        <v>228.14</v>
       </c>
       <c r="E24" t="n">
-        <v>24.112</v>
+        <v>16.796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>115.54</v>
+        <v>228.14</v>
       </c>
       <c r="D25" t="n">
-        <v>174.56</v>
+        <v>308.64</v>
       </c>
       <c r="E25" t="n">
-        <v>20.424</v>
+        <v>11.876</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>246.66</v>
+        <v>47.78</v>
       </c>
       <c r="D26" t="n">
-        <v>288.26</v>
+        <v>127.98</v>
       </c>
       <c r="E26" t="n">
-        <v>8.884</v>
+        <v>21.492</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,51 +945,51 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288.26</v>
+        <v>127.98</v>
       </c>
       <c r="D27" t="n">
-        <v>339.98</v>
+        <v>184.7</v>
       </c>
       <c r="E27" t="n">
-        <v>5.332</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>174.56</v>
+        <v>184.7</v>
       </c>
       <c r="D28" t="n">
-        <v>234.36</v>
+        <v>260.6</v>
       </c>
       <c r="E28" t="n">
-        <v>17.044</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>234.36</v>
+        <v>316.12</v>
       </c>
       <c r="D29" t="n">
-        <v>291.96</v>
+        <v>378.4</v>
       </c>
       <c r="E29" t="n">
-        <v>13.404</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>280.7</v>
+        <v>260.6</v>
       </c>
       <c r="D30" t="n">
-        <v>334.5</v>
+        <v>315.98</v>
       </c>
       <c r="E30" t="n">
-        <v>8.859999999999999</v>
+        <v>9.552</v>
       </c>
     </row>
     <row r="31">
@@ -1017,188 +1017,188 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>339.98</v>
+        <v>308.64</v>
       </c>
       <c r="D31" t="n">
-        <v>384.32</v>
+        <v>375.94</v>
       </c>
       <c r="E31" t="n">
-        <v>2.028</v>
+        <v>8.756</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>268.8</v>
+        <v>238.9</v>
       </c>
       <c r="D32" t="n">
-        <v>338.1</v>
+        <v>290.7</v>
       </c>
       <c r="E32" t="n">
-        <v>9.5</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>131.58</v>
+        <v>378.4</v>
       </c>
       <c r="D33" t="n">
-        <v>223.56</v>
+        <v>426.62</v>
       </c>
       <c r="E33" t="n">
-        <v>20.004</v>
+        <v>3.268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>223.56</v>
+        <v>426.62</v>
       </c>
       <c r="D34" t="n">
-        <v>289.6</v>
+        <v>501.78</v>
       </c>
       <c r="E34" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>266.12</v>
+        <v>501.78</v>
       </c>
       <c r="D35" t="n">
-        <v>308.62</v>
+        <v>581.88</v>
       </c>
       <c r="E35" t="n">
-        <v>8.488</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>338.1</v>
+        <v>217.34</v>
       </c>
       <c r="D36" t="n">
-        <v>391.76</v>
+        <v>262.52</v>
       </c>
       <c r="E36" t="n">
-        <v>6.244</v>
+        <v>12.948</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>308.62</v>
+        <v>262.52</v>
       </c>
       <c r="D37" t="n">
-        <v>369.1</v>
+        <v>301.96</v>
       </c>
       <c r="E37" t="n">
-        <v>5.54</v>
+        <v>9.644</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>334.5</v>
+        <v>301.96</v>
       </c>
       <c r="D38" t="n">
-        <v>379.4</v>
+        <v>352.56</v>
       </c>
       <c r="E38" t="n">
-        <v>6</v>
+        <v>5.724</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>384.32</v>
+        <v>352.56</v>
       </c>
       <c r="D39" t="n">
-        <v>476.66</v>
+        <v>421.52</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>476.66</v>
+        <v>262</v>
       </c>
       <c r="D40" t="n">
-        <v>543.02</v>
+        <v>309.18</v>
       </c>
       <c r="E40" t="n">
-        <v>26.024</v>
+        <v>8.891999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>391.76</v>
+        <v>581.88</v>
       </c>
       <c r="D41" t="n">
-        <v>443.94</v>
+        <v>638.04</v>
       </c>
       <c r="E41" t="n">
-        <v>2.656</v>
+        <v>23.604</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,93 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>379.4</v>
+        <v>315.98</v>
       </c>
       <c r="D42" t="n">
-        <v>426.58</v>
+        <v>391.3</v>
       </c>
       <c r="E42" t="n">
-        <v>2.412</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>369.1</v>
+        <v>290.7</v>
       </c>
       <c r="D43" t="n">
-        <v>431.68</v>
+        <v>338.4</v>
       </c>
       <c r="E43" t="n">
-        <v>1.892</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>431.68</v>
+        <v>375.94</v>
       </c>
       <c r="D44" t="n">
-        <v>514.5</v>
+        <v>419.88</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>5.492</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>443.94</v>
+        <v>421.52</v>
       </c>
       <c r="D45" t="n">
-        <v>495.74</v>
+        <v>522.98</v>
       </c>
       <c r="E45" t="n">
-        <v>0.576</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>495.74</v>
+        <v>522.98</v>
       </c>
       <c r="D46" t="n">
-        <v>566.49</v>
+        <v>586.84</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="47">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>291.96</v>
+        <v>338.4</v>
       </c>
       <c r="D47" t="n">
-        <v>357.88</v>
+        <v>404.22</v>
       </c>
       <c r="E47" t="n">
-        <v>10.412</v>
+        <v>7.008</v>
       </c>
     </row>
     <row r="48">
@@ -1344,51 +1344,51 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>289.6</v>
+        <v>586.84</v>
       </c>
       <c r="D48" t="n">
-        <v>329.6</v>
+        <v>636.74</v>
       </c>
       <c r="E48" t="n">
-        <v>12.64</v>
+        <v>23.904</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>329.6</v>
+        <v>309.18</v>
       </c>
       <c r="D49" t="n">
-        <v>377.84</v>
+        <v>350.4</v>
       </c>
       <c r="E49" t="n">
-        <v>9.936</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>357.88</v>
+        <v>391.3</v>
       </c>
       <c r="D50" t="n">
-        <v>395.78</v>
+        <v>463.4</v>
       </c>
       <c r="E50" t="n">
-        <v>8.252000000000001</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="51">
@@ -1397,17 +1397,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>395.78</v>
+        <v>404.22</v>
       </c>
       <c r="D51" t="n">
-        <v>437.94</v>
+        <v>478.22</v>
       </c>
       <c r="E51" t="n">
-        <v>5.656</v>
+        <v>2.208</v>
       </c>
     </row>
     <row r="52">
@@ -1416,93 +1416,93 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>566.49</v>
+        <v>638.04</v>
       </c>
       <c r="D52" t="n">
-        <v>646.59</v>
+        <v>702.74</v>
       </c>
       <c r="E52" t="n">
-        <v>26.62</v>
+        <v>20.744</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>426.58</v>
+        <v>478.22</v>
       </c>
       <c r="D53" t="n">
-        <v>493.66</v>
+        <v>521.02</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>493.66</v>
+        <v>521.02</v>
       </c>
       <c r="D54" t="n">
-        <v>529.78</v>
+        <v>612.42</v>
       </c>
       <c r="E54" t="n">
-        <v>27.088</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>437.94</v>
+        <v>419.88</v>
       </c>
       <c r="D55" t="n">
-        <v>504.46</v>
+        <v>494.68</v>
       </c>
       <c r="E55" t="n">
-        <v>1.624</v>
+        <v>2.112</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>504.46</v>
+        <v>350.4</v>
       </c>
       <c r="D56" t="n">
-        <v>583.11</v>
+        <v>409.16</v>
       </c>
       <c r="E56" t="n">
-        <v>30</v>
+        <v>2.624</v>
       </c>
     </row>
     <row r="57">
@@ -1511,93 +1511,74 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>529.78</v>
+        <v>463.4</v>
       </c>
       <c r="D57" t="n">
-        <v>574.64</v>
+        <v>516.96</v>
       </c>
       <c r="E57" t="n">
-        <v>24.232</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>543.02</v>
+        <v>516.96</v>
       </c>
       <c r="D58" t="n">
-        <v>586.24</v>
+        <v>597.1900000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>22.832</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>574.64</v>
+        <v>636.74</v>
       </c>
       <c r="D59" t="n">
-        <v>644.74</v>
+        <v>706.2</v>
       </c>
       <c r="E59" t="n">
-        <v>20.312</v>
+        <v>21.048</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>377.84</v>
+        <v>597.1900000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>434.36</v>
+        <v>660.83</v>
       </c>
       <c r="E60" t="n">
-        <v>5.904</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>pond51</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>583.11</v>
-      </c>
-      <c r="D61" t="n">
-        <v>662.6900000000001</v>
-      </c>
-      <c r="E61" t="n">
-        <v>26.192</v>
+        <v>27.296</v>
       </c>
     </row>
   </sheetData>
